--- a/BaoCaoNhom/Project Description.xlsx
+++ b/BaoCaoNhom/Project Description.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="123820"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225"/>
   </bookViews>
   <sheets>
     <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
   <si>
     <t>Thay đổi thông tin sách, có khả năng thay đổi toàn bộ thông tin về sách</t>
   </si>
@@ -203,9 +202,6 @@
     <t>2. Khi user chỉnh sửa dữ liệu cá nhân, thì phương thức hiện thực tương tự như register user (update)</t>
   </si>
   <si>
-    <t>Admin có thể xem thống kê về hoạt động mượn trả sách trong tuần/tháng</t>
-  </si>
-  <si>
     <t>Khi insert sách mới vào cơ sở dữ liệu chỉ cần insert những thông tin cơ bản về sách khi mới được nhập vào kho</t>
   </si>
   <si>
@@ -216,9 +212,6 @@
   </si>
   <si>
     <t>-Hủy mượn sách</t>
-  </si>
-  <si>
-    <t>Admin có thể xem thông tin mượn trả sách</t>
   </si>
   <si>
     <t>4. Danh sách các sách yêu thích của người dùng</t>
@@ -319,13 +312,25 @@
   </si>
   <si>
     <t>Thông tin sách</t>
+  </si>
+  <si>
+    <t>Thủ thư có thể xem thông tin mượn trả sách</t>
+  </si>
+  <si>
+    <t>Thủ thư có thể xem thống kê về hoạt động mượn trả sách trong tuần/tháng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -334,22 +339,27 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FFFFF2CC"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FFFFF2CC"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="6">
@@ -397,62 +407,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0"/>
-    <cellStyle name="Percent" xfId="1"/>
+    <cellStyle name="Comma" xfId="4"/>
+    <cellStyle name="Comma[0]" xfId="5"/>
     <cellStyle name="Currency" xfId="2"/>
     <cellStyle name="Currency[0]" xfId="3"/>
-    <cellStyle name="Comma" xfId="4"/>
-    <cellStyle name="Comma[0]" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -522,11 +533,16 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -572,7 +588,7 @@
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="?? ??"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
@@ -600,13 +616,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="?? ??"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
@@ -634,6 +651,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -668,16 +686,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
+                <a:shade val="40000"/>
+                <a:satMod val="155000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="65000">
+              <a:schemeClr val="phClr">
+                <a:shade val="85000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -685,7 +707,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -700,7 +722,7 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="34925" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -710,16 +732,16 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="50800" algn="tl" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="64000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="39000" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -728,22 +750,22 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="39000" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
           <a:scene3d>
-            <a:camera prst="orthographicFront">
+            <a:camera prst="orthographicFront" fov="0">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
             <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:lightRig>
           </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+          <a:sp3d prstMaterial="matte">
+            <a:bevelT h="22225"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -755,27 +777,24 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="50000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="75000"/>
+                <a:satMod val="155000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -805,605 +824,600 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="0" customWidth="1"/>
-    <col min="2" max="2" width="28.710938" style="0" customWidth="1"/>
-    <col min="3" max="3" width="40.285156" style="0" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="0" customWidth="1"/>
-    <col min="5" max="20" width="17.140625" style="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="20" width="17.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="112.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="C5" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="C6" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C8" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="C9" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="C10" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C13" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C15" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C16" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C23" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C24" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C26" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C28" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C31" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C32" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C33" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C36" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C37" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C38" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C39" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C41" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C42" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C43" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C46" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C47" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B49" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C50" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C51" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C53" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C54" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-    </row>
-    <row r="2" ht="12.75" customHeight="1"/>
-    <row r="3" ht="14.25">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" ht="185.25">
-      <c r="C5" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" ht="242.25">
-      <c r="C6" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" ht="28.5">
-      <c r="A7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" ht="57">
-      <c r="C8" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" ht="185.25">
-      <c r="C9" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" ht="409.5">
-      <c r="C10" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" ht="28.5">
-      <c r="A11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" ht="71.25">
-      <c r="C12" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" ht="99.75">
-      <c r="C13" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" ht="28.5">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" ht="128.25">
-      <c r="C15" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" ht="71.25">
-      <c r="C16" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="A17" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" ht="313.5">
-      <c r="B18" s="6" t="s">
+      <c r="B55" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" ht="42.75">
-      <c r="B19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" ht="171">
-      <c r="B20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" ht="12.75" customHeight="1"/>
-    <row r="22" ht="14.25">
-      <c r="A22" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" ht="99.75">
-      <c r="C23" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" ht="71.25">
-      <c r="C24" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" ht="28.5">
-      <c r="A25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" ht="71.25">
-      <c r="C26" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="42.75">
-      <c r="A27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" ht="99.75">
-      <c r="C28" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" ht="42.75">
-      <c r="A29" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" ht="42.75">
-      <c r="C30" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" ht="57">
-      <c r="C31" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" ht="57">
-      <c r="C32" s="6" t="s">
+    </row>
+    <row r="56" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C56" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C57" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C59" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C60" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C61" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C63" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" ht="71.25">
-      <c r="C33" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" ht="71.25">
-      <c r="A34" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" ht="42.75">
-      <c r="C35" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" ht="42.75">
-      <c r="C36" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" ht="42.75">
-      <c r="C37" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" ht="71.25">
-      <c r="C38" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" ht="42.75">
-      <c r="C39" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" ht="42.75">
-      <c r="A40" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" ht="71.25">
-      <c r="C41" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" ht="85.5">
-      <c r="C42" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" ht="42.75">
-      <c r="C43" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25">
-      <c r="A44" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" ht="28.5">
-      <c r="B45" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" ht="57">
-      <c r="C46" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" ht="28.5">
-      <c r="C47" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" ht="42.75">
-      <c r="A48" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" ht="42.75">
-      <c r="B49" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" ht="57">
-      <c r="C50" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" ht="42.75">
-      <c r="C51" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" ht="42.75">
-      <c r="B52" s="6" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C64" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C65" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C66" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" ht="57">
-      <c r="C53" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" ht="42.75">
-      <c r="C54" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25">
-      <c r="A55" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" ht="42.75">
-      <c r="C56" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" ht="57">
-      <c r="C57" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" ht="57">
-      <c r="A58" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" ht="42.75">
-      <c r="C59" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" ht="42.75">
-      <c r="C60" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" ht="57">
-      <c r="C61" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" ht="28.5">
-      <c r="A62" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" ht="42.75">
-      <c r="C63" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" ht="42.75">
-      <c r="C64" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" ht="42.75">
-      <c r="C65" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" ht="42.75">
-      <c r="C66" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-    </row>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="71" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="72" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="73" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="74" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="75" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="76" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="77" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="78" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="79" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="80" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="81" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="82" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="83" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="84" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="85" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="86" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="87" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="88" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="89" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="90" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="91" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="92" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="93" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="94" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="95" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="96" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="97" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="98" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="99" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="100" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="101" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="102" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="103" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="104" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="105" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="106" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="107" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="108" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="109" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="110" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="111" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="112" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="113" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="114" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="115" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="116" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="117" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="118" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="119" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="120" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="121" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="122" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="123" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="124" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="125" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="126" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="127" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="128" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="129" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="130" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="131" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="132" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="133" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="134" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="135" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="136" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="137" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="138" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="139" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="140" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="141" ht="12.75" customHeight="1" hidden="1"/>
-    <row r="142" ht="12.75" customHeight="1" hidden="1"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+    </row>
+    <row r="70" spans="1:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="1:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
-  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/BaoCaoNhom/Project Description.xlsx
+++ b/BaoCaoNhom/Project Description.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="123820"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225"/>
+    <workbookView xWindow="240" yWindow="180" windowWidth="14940" windowHeight="9165"/>
   </bookViews>
   <sheets>
     <sheet name="Trang tính1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="88">
   <si>
     <t>Thay đổi thông tin sách, có khả năng thay đổi toàn bộ thông tin về sách</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Thông tin thêm về sách khi sách được đưa ra cho mượn online</t>
   </si>
   <si>
-    <t>2. Trạng thái của sách khi được trả lại thư viện</t>
-  </si>
-  <si>
     <t>Đăng ký mượn sách/hủy mượn sách</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t>Hỗ trợ đa ngôn ngữ</t>
   </si>
   <si>
-    <t>15.</t>
-  </si>
-  <si>
     <t>8.</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
   </si>
   <si>
     <t>3.</t>
-  </si>
-  <si>
-    <t>16.</t>
   </si>
   <si>
     <t>1. Hỗ trợ gửi mail khi người dùng tạo tài khoản mới</t>
@@ -141,9 +132,6 @@
   </si>
   <si>
     <t>10.</t>
-  </si>
-  <si>
-    <t>3. Số lượng hiện tại của 1 loại sách còn lại trong kho</t>
   </si>
   <si>
     <t>Log in / out user</t>
@@ -187,9 +175,6 @@
 14. Ký hiệu xếp giá</t>
   </si>
   <si>
-    <t>1. Danh sách các sách đã trả trong tuần/tháng</t>
-  </si>
-  <si>
     <t>1. Tạo một trang HTML với một số form để user điền vào</t>
   </si>
   <si>
@@ -288,9 +273,6 @@
   </si>
   <si>
     <t>14.</t>
-  </si>
-  <si>
-    <t>Thủ thư xem thông tin về sách mượn và trả của người dùng</t>
   </si>
   <si>
     <t>2. Tăng cuốn sách có thể mượn của user lên 1</t>
@@ -423,7 +405,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -453,6 +435,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -827,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -842,7 +827,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -866,137 +851,137 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
       <c r="C5" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="89.25" x14ac:dyDescent="0.2">
       <c r="C6" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C8" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
       <c r="C9" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="140.25" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C12" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C13" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C15" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C16" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="178.5" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
@@ -1004,41 +989,41 @@
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C23" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C24" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1048,110 +1033,110 @@
     </row>
     <row r="27" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C28" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C30" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C31" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C32" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C33" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C35" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C36" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C37" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C38" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C39" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C41" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C42" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1161,168 +1146,143 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C46" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C47" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B49" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C50" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C51" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C53" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C54" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C56" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C57" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="10">
+        <v>15</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C59" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C60" s="5" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C61" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C63" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C64" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C65" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C66" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+    <row r="62" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C62" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="67" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -1340,17 +1300,17 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="70" spans="1:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="5:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="5:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="5:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="5:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="5:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="5:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="5:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="5:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="5:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="5:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="5:20" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="82" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="83" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
